--- a/Voca_ETS.xlsx
+++ b/Voca_ETS.xlsx
@@ -529,12 +529,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>pier</t>
+          <t>pole</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>부두</t>
+          <t>기둥</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -544,12 +544,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pole</t>
+          <t>identical</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>기둥</t>
+          <t>똑같은, 동일한</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -559,12 +559,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>identical</t>
+          <t>lie</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>똑같은, 동일한</t>
+          <t>놓여 있다</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -574,12 +574,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>lie</t>
+          <t>lay</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>놓여 있다</t>
+          <t>놓다, 두다</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -589,12 +589,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>lay</t>
+          <t>sail</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>놓다, 두다</t>
+          <t>돛; 항해하다</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -604,12 +604,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>sail</t>
+          <t>lean against</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>돛; 항해하다</t>
+          <t>~에 기대다</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -619,12 +619,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>lean against</t>
+          <t>ceiling fan</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>~에 기대다</t>
+          <t>천장 선풍기</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -634,12 +634,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ceiling fan</t>
+          <t>mow</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>천장 선풍기</t>
+          <t>잔디를 깎다</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -649,12 +649,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>mow</t>
+          <t>take A out of B</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>잔디를 깎다</t>
+          <t>B에서 A를 뽑다</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -664,12 +664,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>take A out of B</t>
+          <t>stove</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B에서 A를 뽑다</t>
+          <t>(조리용) 레인지</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -679,12 +679,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>stove</t>
+          <t>plow</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>(조리용) 레인지</t>
+          <t>쟁기로 갈다; 쟁기</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -694,12 +694,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>plow</t>
+          <t>bouquet</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>쟁기로 갈다; 쟁기</t>
+          <t>꽃다발</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -709,12 +709,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bouquet</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>꽃다발</t>
+          <t>(길, 강 등이) 구불구불하다</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -724,12 +724,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>crate</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>(길, 강 등이) 구불구불하다</t>
+          <t>상자</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -739,12 +739,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>crate</t>
+          <t>polish</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>상자</t>
+          <t>닦다, 광내다</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -754,12 +754,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>polish</t>
+          <t>be about to</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>닦다, 광내다</t>
+          <t>막 ~하려고 하다</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -769,12 +769,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>be about to</t>
+          <t>put up</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>막 ~하려고 하다</t>
+          <t>~을 붙이다, 세우다</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -784,12 +784,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>put up</t>
+          <t>shelving unit</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>~을 붙이다, 세우다</t>
+          <t>선반</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -799,12 +799,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>podium</t>
+          <t>step over</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>연단</t>
+          <t>(장애물을) 넘다</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -814,12 +814,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>shelving unit</t>
+          <t>rake</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>선반</t>
+          <t>갈퀴</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -829,12 +829,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>step over</t>
+          <t>runway</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>(장애물을) 넘다</t>
+          <t>활주로</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -844,12 +844,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>rake</t>
+          <t>position</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>갈퀴</t>
+          <t>배치하다</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -859,12 +859,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>runway</t>
+          <t>bag</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>활주로</t>
+          <t>(봉지에 넣어) 포장하다</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -874,12 +874,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>position</t>
+          <t>oar</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>배치하다</t>
+          <t>(물에서 쓰는) 노</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -889,12 +889,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sip</t>
+          <t>technical drawing</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>마시다</t>
+          <t>제도(= drafting)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -904,12 +904,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>bag</t>
+          <t>nevertheless</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>(봉지에 넣어) 포장하다</t>
+          <t>그럼에도 불구하고</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -919,12 +919,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>oar</t>
+          <t>fairly</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>(물에서 쓰는) 노</t>
+          <t>상당히, 꽤</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -934,12 +934,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>autograph</t>
+          <t>autehntic</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>사인</t>
+          <t>진짜의</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -949,12 +949,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>technical drawing</t>
+          <t>qualify for ~</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>제도(= drafting)</t>
+          <t>~의 자격을 얻다</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -964,12 +964,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>nevertheless</t>
+          <t>violator</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>그럼에도 불구하고</t>
+          <t>위반자</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -979,12 +979,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>fairly</t>
+          <t>to this end</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>상당히, 꽤</t>
+          <t>이를 위해, 이런 목적으로</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -994,12 +994,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>autehntic</t>
+          <t>municipal</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>진짜의</t>
+          <t>시의</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1009,12 +1009,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>qualify for ~</t>
+          <t>look forward to + -ing</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>~의 자격을 얻다</t>
+          <t>~을 고대하다</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1024,12 +1024,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>violator</t>
+          <t>once a month</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>위반자</t>
+          <t>매달</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1039,12 +1039,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>to this end</t>
+          <t>every other week</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>이를 위해, 이런 목적으로</t>
+          <t>격주로</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1054,12 +1054,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>municipal</t>
+          <t>orchard</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>시의</t>
+          <t>과수원</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1069,12 +1069,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>look forward to + -ing</t>
+          <t>plumbing</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>~을 고대하다</t>
+          <t>배관[수도 시설], 배관 작업[공사]</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1084,12 +1084,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>once a month</t>
+          <t>lead character</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>매달</t>
+          <t>주인공</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1099,12 +1099,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>every other week</t>
+          <t>autobiographical</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>격주로</t>
+          <t>자전적인</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1114,12 +1114,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>orchard</t>
+          <t>scope</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>과수원</t>
+          <t>범위, 영역</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1129,12 +1129,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>plumbing</t>
+          <t>pay roll</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>배관[수도 시설], 배관 작업[공사]</t>
+          <t>급여 대상자 명단, 급여 총액</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1144,12 +1144,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>lead character</t>
+          <t>pavilion</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>주인공</t>
+          <t>파빌리온 (공원 내 쉼터, 공연장으로 쓰이는 건물)</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1159,12 +1159,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>autobiographical</t>
+          <t>centerpiece</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>자전적인</t>
+          <t>중심부</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1174,27 +1174,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>scope</t>
+          <t>gazebo</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>범위, 영역</t>
+          <t>(정원의) 정자</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>pay roll</t>
+          <t>delegate</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>급여 대상자 명단, 급여 총액</t>
+          <t>대표(자), 위임하다, 선정하다</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1204,12 +1204,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>year-round</t>
+          <t>sports complex</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>일년 내내</t>
+          <t>종합 운동자</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1219,12 +1219,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>pavilion</t>
+          <t>right candidate</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>파빌리온 (공원 내 쉼터, 공연장으로 쓰이는 건물)</t>
+          <t>적임자</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1234,12 +1234,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>centerpiece</t>
+          <t>deliberation</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>중심부</t>
+          <t>심사숙고</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1249,27 +1249,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>gazebo</t>
+          <t>official</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>(정원의) 정자</t>
+          <t>간부, 공무원</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>delegate</t>
+          <t>plot</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>대표(자), 위임하다, 선정하다</t>
+          <t>(소설, 영화 등의) 구성, 줄거리</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1279,12 +1279,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>sports complex</t>
+          <t>simply</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>종합 운동자</t>
+          <t>&lt;말하고자 하는 것을 강조할 때 쓰인다&gt;</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1294,12 +1294,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>right candidate</t>
+          <t>allege</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>적임자</t>
+          <t>(확실한 증거 없이) 주장하다</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1309,12 +1309,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>deliberation</t>
+          <t>outline</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>심사숙고</t>
+          <t>설명하다</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1324,12 +1324,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>official</t>
+          <t>you get what you pay for</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>간부, 공무원</t>
+          <t>싼게 비지떡</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1339,12 +1339,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>plot</t>
+          <t>fairly</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>(소설, 영화 등의) 구성, 줄거리</t>
+          <t>꽤</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1354,12 +1354,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>simply</t>
+          <t>upholstery</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>&lt;말하고자 하는 것을 강조할 때 쓰인다&gt;</t>
+          <t>(가구 덮개 등의) 실내 장식(품)</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1369,12 +1369,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>allege</t>
+          <t>sloppy</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>(확실한 증거 없이) 주장하다</t>
+          <t>날림의, 엉성한</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1384,12 +1384,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>outline</t>
+          <t>premiere</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>설명하다</t>
+          <t>초연, 개봉</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1399,12 +1399,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>you get what you pay for</t>
+          <t>privately held company</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>싼게 비지떡</t>
+          <t>비공개회사 (소수의 주주나 임원이 소유한 회사)</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1414,12 +1414,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>high-rise</t>
+          <t>consumer electronics industry</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>고층 빌딩</t>
+          <t>가전 사업</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1429,12 +1429,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>fairly</t>
+          <t>be due to + 동사원형</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>꽤</t>
+          <t>~에 관해</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1444,12 +1444,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>upholstery</t>
+          <t>initiative</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>(가구 덮개 등의) 실내 장식(품)</t>
+          <t>(목표를 위한 새로운) 계획</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1459,12 +1459,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>sloppy</t>
+          <t>as to</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>날림의, 엉성한</t>
+          <t>~에 관해</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1474,12 +1474,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>faint</t>
+          <t>insulated</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>희미한</t>
+          <t>절연된</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1489,12 +1489,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>sew</t>
+          <t>insulated</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>바느질하다, 꿰매다</t>
+          <t>절연된</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1504,12 +1504,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>premiere</t>
+          <t>sealed</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>초연, 개봉</t>
+          <t xml:space="preserve">마감칠된, 밀폐된 </t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1519,12 +1519,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>privately held company</t>
+          <t>sealed</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>비공개회사 (소수의 주주나 임원이 소유한 회사)</t>
+          <t xml:space="preserve">마감칠된, 밀폐된 </t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1534,12 +1534,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>consumer electronics industry</t>
+          <t>insulated</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>가전 사업</t>
+          <t>절연된</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1549,12 +1549,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>be due to + 동사원형</t>
+          <t>sealed</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>~에 관해</t>
+          <t xml:space="preserve">마감칠된, 밀폐된 </t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1564,12 +1564,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>initiative</t>
+          <t>sealed</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>(목표를 위한 새로운) 계획</t>
+          <t xml:space="preserve">마감칠된, 밀폐된 </t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1579,12 +1579,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>as to</t>
+          <t>insulated</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>~에 관해</t>
+          <t>절연된</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1594,12 +1594,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>insulated</t>
+          <t>sealed</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>절연된</t>
+          <t xml:space="preserve">마감칠된, 밀폐된 </t>
         </is>
       </c>
       <c r="C78" t="n">
